--- a/RPIS/lista11/l11.xlsx
+++ b/RPIS/lista11/l11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t xml:space="preserve">E</t>
   </si>
@@ -58,7 +58,13 @@
     <t xml:space="preserve">Sigma^2</t>
   </si>
   <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zad 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z</t>
   </si>
 </sst>
 </file>
@@ -73,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,20 +157,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,266 +255,283 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="223" zoomScaleNormal="223" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>7.67318063745509</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>4.03209356946768</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <f aca="false">AVERAGE(A1:A20)</f>
         <v>2.8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>4.47301243902133</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <f aca="false">((B2-C3)*SQRT(B4))/SQRT(D3)</f>
         <v>0.307793505625548</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <f aca="false">_xlfn.NORM.DIST(E3,0,1,1)</f>
         <v>0.620880268192545</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>4.35065799106973</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">COUNT(A1:A20)</f>
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>7.76067390934541</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>3.52957431475991</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>2.5</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <f aca="false">STDEVP(A1:A20)</f>
         <v>4.4108353791555</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <f aca="false">((B2-C6)*SQRT(B4-1))/D6</f>
         <v>0.296467578282773</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <f aca="false">_xlfn.NORM.DIST(E6,0,1,1)</f>
         <v>0.616563488294948</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>9.89545569672417</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>4.47262467098841</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>6.83795328011481</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">VAR(A1:A20)</f>
         <v>20.479440781063</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <f aca="false">B4*C9/D9</f>
-        <v>25.5993009763288</v>
-      </c>
-      <c r="F9" s="3" t="n">
+      <c r="E9" s="4" t="n">
+        <f aca="false">(B4-1)*C9/D9</f>
+        <v>24.3193359275123</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <f aca="false">_xlfn.NORM.DIST(E9,B2,C9,1)</f>
-        <v>0.867205370243528</v>
+        <v>0.853319607871555</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">CHIDIST(E9,B4-1)</f>
+        <v>0.184186842346534</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="n">
         <v>5.50303656434212</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>-4.00522337171494</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>-4.00522337171494</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>7.61401538659838</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <f aca="false">VAR(A1:A20)</f>
         <v>20.479440781063</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>2.8</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <f aca="false">(B4*C12/D12)+POWER(((B2-E12)/(SQRT(D12)/SQRT(B4))), 2)</f>
         <v>25.5993009763288</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">_xlfn.NORM.DIST(F12,E12,C12,1)</f>
         <v>0.867205370243528</v>
       </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">CHIDIST(F12,B4)</f>
+        <v>0.179457201094964</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>-5.20016197089432</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>-1.41258832818897</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="1" t="n">
         <v>-2.57644735976783</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="1" t="n">
         <v>6.40699452330815</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="1" t="n">
         <v>-1.77206557433223</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="1" t="n">
         <v>-2.08028375431417</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="1" t="n">
         <v>-1.46225990249653</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="1" t="n">
         <v>1.95975727851383</v>
       </c>
     </row>
